--- a/RP2040_MPU6050/registers.xlsx
+++ b/RP2040_MPU6050/registers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t xml:space="preserve">Registers</t>
   </si>
@@ -43,37 +43,181 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">REG_ENABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8_t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_SAMPLE_RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint16_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GYROSCOPE_MISALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GYROSCOPE_SENSITIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GYROSCOPE_OFFSET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_ACCELEROMETER_MISALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_ACCELEROMETER_SENSITIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_ACCELEROMETER_OFFSET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_SOFTIRON_MATRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_HARD_IRON_OFFSET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_FUSION_CONVENTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GYROSCOPE_RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_ACCELERATION_REJECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_MAGNETIC_REJECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_RECOVERY_TRIGGER_PERIOD_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_REVERSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">Roll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
+    <t xml:space="preserve">REG_FW_VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_WHO_AM_I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_Roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_Pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_Yaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_GZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_AX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_AY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REG_AZ</t>
   </si>
 </sst>
 </file>
@@ -165,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +344,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -398,7 +546,7 @@
   <dimension ref="B1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +554,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="59.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="25"/>
@@ -445,189 +593,432 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+    </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
